--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/201 今夕养老院.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/201 今夕养老院.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340" tabRatio="928" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="14340" tabRatio="928"/>
   </bookViews>
   <sheets>
     <sheet name="maze201_part0" sheetId="19" r:id="rId1"/>
@@ -16,8 +16,11 @@
     <sheet name="maze201_boss23" sheetId="25" r:id="rId7"/>
     <sheet name="maze201_npc71" sheetId="26" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">maze201_part1!$A$1:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">maze201_part1!$A$1:$H$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">maze201_part2!$A$1:$H$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">maze201_boss21!$A$1:$H$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">maze201_boss22!$A$1:$H$10</definedName>
@@ -485,7 +488,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="70">
   <si>
     <t>说明</t>
   </si>
@@ -547,19 +550,58 @@
     <t>string</t>
   </si>
   <si>
-    <t>场景-执行脚本</t>
+    <t>开始</t>
   </si>
   <si>
-    <t>AvgShow:btn_auto</t>
+    <t>1&gt;&gt;</t>
   </si>
   <si>
-    <t>AvgShow:btn_options</t>
+    <t>角色台词</t>
   </si>
   <si>
-    <t>AvgShow:btn_review</t>
+    <t>tuling</t>
   </si>
   <si>
-    <t>开始</t>
+    <t>队长，有空吗？</t>
+  </si>
+  <si>
+    <t>可选对话框</t>
+  </si>
+  <si>
+    <t>$$怎么了？==&gt;怎么了</t>
+  </si>
+  <si>
+    <t>怎么了</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>怎么了？</t>
+  </si>
+  <si>
+    <t>0.8&gt;&gt;</t>
+  </si>
+  <si>
+    <t>我们又在安江市内发现了一个新的巢。</t>
+  </si>
+  <si>
+    <t>从数据波形来看，和泉舜公寓很像，但有有些不同……</t>
+  </si>
+  <si>
+    <t>地点在金夕养老院。</t>
+  </si>
+  <si>
+    <t>$$明白了，我们一起去看看~==&gt;明白</t>
+  </si>
+  <si>
+    <t>明白</t>
+  </si>
+  <si>
+    <t>明白了，我们一起去看看~</t>
+  </si>
+  <si>
+    <t>结束</t>
   </si>
   <si>
     <t>设置镜号</t>
@@ -571,27 +613,6 @@
     <t>no_postprocessing</t>
   </si>
   <si>
-    <t>角色台词</t>
-  </si>
-  <si>
-    <t>duheng</t>
-  </si>
-  <si>
-    <t>看来你们已经出色地完成了这次的任务。</t>
-  </si>
-  <si>
-    <t>有很多种猜测，但是剩下的只有等你们进去才能知道了。地点在今夕养老院。巢的秘密，我们必须要揭开。</t>
-  </si>
-  <si>
-    <t>{music=off}</t>
-  </si>
-  <si>
-    <t>跳转-标签</t>
-  </si>
-  <si>
-    <t>结束</t>
-  </si>
-  <si>
     <t>设置角色</t>
   </si>
   <si>
@@ -601,7 +622,7 @@
     <t>pos=中</t>
   </si>
   <si>
-    <t>这里果然不一样，有两个入口同时开着。</t>
+    <t>{#凯瑟琳2紧张动作}这里果然不一样，有两个入口同时开着。</t>
   </si>
   <si>
     <t>niefei</t>
@@ -610,28 +631,31 @@
     <t>pos=左</t>
   </si>
   <si>
-    <t>涂凌，能检测出什么吗？</t>
-  </si>
-  <si>
-    <t>tuling</t>
+    <t>{#聂飞思考动作}涂凌，能检测出什么吗？</t>
   </si>
   <si>
     <t>pos=右</t>
   </si>
   <si>
-    <t>没办法，信号被干扰了，只知道被锁住的入口应该就是巢主的所在。</t>
+    <t>{#聂飞思考动作恢复}{#涂凌思考动作}没办法，信号被干扰了，只知道被锁住的入口应该就是巢主的所在。</t>
   </si>
   <si>
-    <t>这种事不用检测我也知道的呀！那我们现在怎么办？看心情？</t>
+    <t>{#涂凌思考动作恢复}这种事不用检测我也知道的呀！那我们现在怎么办呢？看心情？</t>
   </si>
   <si>
-    <t>周易来决定吧。</t>
+    <t>移除角色</t>
+  </si>
+  <si>
+    <t>由你来决定吧。{#涂凌点赞动作}</t>
+  </si>
+  <si>
+    <t>跳转-标签</t>
   </si>
   <si>
     <t>是否离开今夕养老院？</t>
   </si>
   <si>
-    <t>可选对话框</t>
+    <t>type=1</t>
   </si>
   <si>
     <r>
@@ -709,6 +733,9 @@
     </r>
   </si>
   <si>
+    <t>{music=off}</t>
+  </si>
+  <si>
     <t>离开</t>
   </si>
   <si>
@@ -718,10 +745,10 @@
     <t>apartment2</t>
   </si>
   <si>
-    <t>进来之后度数清晰了些，虽然还是迷雾重重……这个巢很奇怪，似乎没有终点。</t>
+    <t>{#涂凌思考动作}进来之后读数清晰了些，虽然还是迷雾重重……这个巢很奇怪，似乎没有终点。</t>
   </si>
   <si>
-    <t>怎么可能有这种事情？本大爷全都跑一遍，肯定能找到终点的！</t>
+    <t>{#聂飞愤怒动作}怎么可能有这种事情？本大爷全都跑一遍，肯定能找到终点的！</t>
   </si>
   <si>
     <t>stranger1</t>
@@ -755,7 +782,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,9 +828,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -952,11 +991,17 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1330,10 +1375,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1342,37 +1387,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1381,94 +1420,100 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1478,7 +1523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1599,11 +1644,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1666,6 +1714,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="chat_wuzi|可以领取物资"/>
+      <sheetName val="chat_day2|第二天收到"/>
+      <sheetName val="chat_day4|第四天收到"/>
+      <sheetName val="chat_daypass|隔两天收到"/>
+      <sheetName val="辅助表"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1955,10 +2024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2006,7 +2075,7 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="14">
-        <f ca="1">INDEX($D$5:$D$794,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$791,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="15" t="e">
@@ -2108,187 +2177,193 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" customHeight="1" spans="1:8">
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A6" s="27">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A6:A17" si="0">ROW()-6</f>
         <v>0</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="47" customHeight="1" spans="1:10">
+      <c r="A7" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" s="3" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A7" s="27">
-        <f t="shared" ref="A7:A16" si="0">ROW()-6</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="F7" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
     </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:8">
+    <row r="8" s="3" customFormat="1" ht="66" customHeight="1" spans="1:10">
       <c r="A8" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7" t="s">
+        <v>26</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
     </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="9" s="3" customFormat="1" ht="30" customHeight="1" spans="1:10">
       <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A10" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="27" t="s">
-        <v>25</v>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>26</v>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>27</v>
+      <c r="F10" s="41" t="s">
+        <v>29</v>
       </c>
       <c r="G10" s="6"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" s="3" customFormat="1" customHeight="1" spans="1:10">
+    <row r="11" s="2" customFormat="1" ht="47" customHeight="1" spans="1:10">
       <c r="A11" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="38" t="s">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="J11" s="30"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="J11" s="8"/>
     </row>
-    <row r="12" s="3" customFormat="1" customHeight="1" spans="1:10">
+    <row r="12" s="2" customFormat="1" ht="47" customHeight="1" spans="1:10">
       <c r="A12" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9" t="s">
-        <v>28</v>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
       </c>
-      <c r="E12" s="38" t="s">
-        <v>29</v>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>31</v>
+      <c r="E12" s="6" t="s">
+        <v>23</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="J12" s="30"/>
+      <c r="F12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="J12" s="8"/>
     </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="1:10">
+    <row r="13" s="2" customFormat="1" ht="47" customHeight="1" spans="1:10">
       <c r="A13" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
-        <v>28</v>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="28" t="s">
-        <v>32</v>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="J13" s="30"/>
+      <c r="E13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="J13" s="8"/>
     </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="14" s="2" customFormat="1" ht="66" customHeight="1" spans="1:10">
       <c r="A14" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7" t="s">
-        <v>20</v>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="G14" s="6"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="15" s="2" customFormat="1" ht="30" customHeight="1" spans="1:10">
       <c r="A15" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7" t="s">
-        <v>20</v>
+      <c r="B15" s="6" t="s">
+        <v>35</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="J15" s="8"/>
     </row>
@@ -2297,45 +2372,41 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7" t="s">
-        <v>20</v>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>23</v>
+      <c r="E16" s="6" t="s">
+        <v>28</v>
       </c>
-      <c r="F16" s="7">
-        <v>1</v>
+      <c r="F16" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="G16" s="6"/>
       <c r="J16" s="8"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A17" s="27">
-        <f t="shared" ref="A17:A32" si="1">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
-        <v>33</v>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
       </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="18" s="2" customFormat="1" ht="11.25" spans="1:10">
       <c r="A18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A14:A29" si="1">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2369,7 +2440,7 @@
       <c r="G20" s="6"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="11.25" spans="1:10">
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2395,7 +2466,7 @@
       <c r="G22" s="6"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="23" s="2" customFormat="1" ht="11.25" spans="1:10">
       <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2434,7 +2505,7 @@
       <c r="G25" s="6"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="11.25" spans="1:10">
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2455,7 +2526,7 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="J27" s="8"/>
@@ -2478,7 +2549,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2486,46 +2557,12 @@
       <c r="G29" s="6"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A30" s="27">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="6"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A31" s="27">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="6"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A32" s="27">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="6"/>
-      <c r="J32" s="8"/>
-    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D7 D10 D11 D12 D13 D16 D17 D8:D9 D14:D15">
+      <formula1>[1]辅助表!#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -2535,12 +2572,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2588,7 +2625,7 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="14">
-        <f ca="1">INDEX($D$5:$D$793,CELL("row")-4)</f>
+        <f ca="1">INDEX($D$5:$D$794,CELL("row")-4)</f>
         <v>0</v>
       </c>
       <c r="E2" s="15" t="e">
@@ -2697,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:8">
@@ -2706,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="3"/>
@@ -2725,13 +2762,13 @@
       <c r="B8" s="33"/>
       <c r="C8" s="32"/>
       <c r="D8" s="34" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="36"/>
@@ -2739,19 +2776,19 @@
     </row>
     <row r="9" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A9" s="27">
-        <f t="shared" ref="A9:A16" si="1">ROW()-6</f>
+        <f t="shared" ref="A9:A17" si="1">ROW()-6</f>
         <v>3</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G9" s="9"/>
       <c r="J9" s="30"/>
@@ -2764,13 +2801,13 @@
       <c r="B10" s="33"/>
       <c r="C10" s="32"/>
       <c r="D10" s="34" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="36"/>
@@ -2784,13 +2821,13 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G11" s="9"/>
       <c r="J11" s="30"/>
@@ -2803,13 +2840,13 @@
       <c r="B12" s="33"/>
       <c r="C12" s="32"/>
       <c r="D12" s="34" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="36"/>
@@ -2823,13 +2860,13 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G13" s="9"/>
       <c r="J13" s="30"/>
@@ -2842,13 +2879,13 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G14" s="9"/>
       <c r="J14" s="30"/>
@@ -2861,42 +2898,53 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>46</v>
-      </c>
+      <c r="F15" s="28"/>
       <c r="G15" s="9"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" s="3" customFormat="1" customHeight="1" spans="1:10">
       <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>34</v>
+      <c r="E16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="27">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="27">
-        <f t="shared" ref="A17:A31" si="2">ROW()-6</f>
-        <v>11</v>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18" s="27">
+        <f t="shared" ref="A18:A32" si="2">ROW()-6</f>
+        <v>12</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" s="27">
-        <f t="shared" si="2"/>
-        <v>12</v>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
@@ -2905,13 +2953,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="13.5" spans="1:1">
+    <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="27">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:1">
+    <row r="21" ht="13.5" spans="1:1">
       <c r="A21" s="27">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -2935,13 +2983,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="13.5" spans="1:1">
+    <row r="25" customHeight="1" spans="1:1">
       <c r="A25" s="27">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:1">
+    <row r="26" ht="13.5" spans="1:1">
       <c r="A26" s="27">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -2959,28 +3007,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:5">
+    <row r="29" customHeight="1" spans="1:1">
       <c r="A29" s="27">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="E29" s="9"/>
     </row>
-    <row r="30" customHeight="1" spans="1:1">
+    <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="27">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="E30" s="9"/>
     </row>
-    <row r="31" customHeight="1" spans="1:2">
+    <row r="31" customHeight="1" spans="1:1">
       <c r="A31" s="27">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B31" s="7"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="27">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H31">
+  <autoFilter ref="A1:H32">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2996,7 +3050,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -3152,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -3169,13 +3223,13 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="27" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G7" s="6"/>
       <c r="J7" s="8"/>
@@ -3188,13 +3242,16 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="28" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G8" s="9"/>
+      <c r="H8" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J8" s="30"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="24.75" spans="1:10">
@@ -3205,11 +3262,11 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="39" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G9" s="9"/>
       <c r="J9" s="30"/>
@@ -3222,11 +3279,11 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="28" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G10" s="9"/>
       <c r="J10" s="30"/>
@@ -3237,7 +3294,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5"/>
       <c r="F11" s="7"/>
@@ -3252,10 +3309,10 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
@@ -3269,11 +3326,11 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G13" s="6"/>
       <c r="J13" s="8"/>
@@ -3284,7 +3341,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
@@ -3490,7 +3547,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -3647,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" customHeight="1" spans="1:16383">
@@ -3658,13 +3715,13 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G7" s="9"/>
       <c r="I7" s="27"/>
@@ -18005,13 +18062,13 @@
       <c r="B8" s="33"/>
       <c r="C8" s="32"/>
       <c r="D8" s="34" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="36"/>
@@ -18025,13 +18082,13 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G9" s="9"/>
       <c r="I9" s="27"/>
@@ -32372,13 +32429,13 @@
       <c r="B10" s="33"/>
       <c r="C10" s="32"/>
       <c r="D10" s="34" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="36"/>
@@ -32392,13 +32449,13 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G11" s="9"/>
       <c r="I11" s="27"/>
@@ -46739,11 +46796,11 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G12" s="9"/>
       <c r="I12" s="27"/>
@@ -61082,7 +61139,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:1">
@@ -61190,7 +61247,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -61346,7 +61403,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -61363,13 +61420,13 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="27" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G7" s="6"/>
       <c r="J7" s="8"/>
@@ -61382,13 +61439,13 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G8" s="9"/>
       <c r="J8" s="30"/>
@@ -61401,11 +61458,11 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="2"/>
@@ -61418,7 +61475,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -61602,7 +61659,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -61619,13 +61676,13 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="27" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G7" s="6"/>
       <c r="J7" s="8"/>
@@ -61638,13 +61695,13 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G8" s="9"/>
       <c r="J8" s="30"/>
@@ -61657,11 +61714,11 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="2"/>
@@ -61674,7 +61731,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -61696,13 +61753,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -61858,7 +61915,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -61875,13 +61932,13 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="27" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G7" s="6"/>
       <c r="J7" s="8"/>
@@ -61894,13 +61951,13 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G8" s="9"/>
       <c r="J8" s="30"/>
@@ -61913,11 +61970,11 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="2"/>
@@ -61930,7 +61987,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -61952,13 +62009,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -62114,7 +62171,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
@@ -62131,13 +62188,13 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="27" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G7" s="6"/>
       <c r="J7" s="8"/>
@@ -62150,13 +62207,13 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G8" s="9"/>
       <c r="J8" s="30"/>
@@ -62169,13 +62226,13 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G9" s="9"/>
       <c r="J9" s="30"/>
@@ -62188,13 +62245,13 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G10" s="9"/>
       <c r="J10" s="30"/>
@@ -62207,11 +62264,11 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="2"/>
@@ -62224,7 +62281,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>

--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/201 今夕养老院.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/迷宫副本/201 今夕养老院.xlsx
@@ -580,7 +580,7 @@
     <t>怎么了？</t>
   </si>
   <si>
-    <t>0.8&gt;&gt;</t>
+    <t>1.5&gt;&gt;</t>
   </si>
   <si>
     <t>我们又在安江市内发现了一个新的巢。</t>
@@ -2027,7 +2027,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2074,9 +2074,9 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14">
+      <c r="D2" s="14" t="str">
         <f ca="1">INDEX($D$5:$D$791,CELL("row")-4)</f>
-        <v>0</v>
+        <v>角色台词</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -2624,9 +2624,9 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14">
+      <c r="D2" s="14" t="str">
         <f ca="1">INDEX($D$5:$D$794,CELL("row")-4)</f>
-        <v>0</v>
+        <v>设置角色</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -3097,9 +3097,9 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14">
+      <c r="D2" s="14" t="str">
         <f ca="1">INDEX($D$5:$D$790,CELL("row")-4)</f>
-        <v>0</v>
+        <v>切换场景</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
@@ -3594,9 +3594,9 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="14">
+      <c r="D2" s="14" t="str">
         <f ca="1">INDEX($D$5:$D$789,CELL("row")-4)</f>
-        <v>0</v>
+        <v>跳转-标签</v>
       </c>
       <c r="E2" s="15" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
